--- a/medicine/Enfance/Raphaël_Beuchot/Raphaël_Beuchot.xlsx
+++ b/medicine/Enfance/Raphaël_Beuchot/Raphaël_Beuchot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rapha%C3%ABl_Beuchot</t>
+          <t>Raphaël_Beuchot</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Raphaël Beuchot, né le 8 avril 1980, est un auteur de bande dessinée français .
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rapha%C3%ABl_Beuchot</t>
+          <t>Raphaël_Beuchot</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ingénieur de formation, Raphaël Beuchot est lauréat du concours Raymond Leblanc qui lui permet de se voir proposer par les éditions du Lombard un scénario de Zidrou, Le Montreur d'histoires, premier album d'une trilogie africaine. Il publie également des strips dans Tsugi et Libération sous le nom de RaphaëlB. , et certains de ses ouvrages sont publiés sous ce pseudonyme[1], dont son récent Medley, en 2018.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ingénieur de formation, Raphaël Beuchot est lauréat du concours Raymond Leblanc qui lui permet de se voir proposer par les éditions du Lombard un scénario de Zidrou, Le Montreur d'histoires, premier album d'une trilogie africaine. Il publie également des strips dans Tsugi et Libération sous le nom de RaphaëlB. , et certains de ses ouvrages sont publiés sous ce pseudonyme, dont son récent Medley, en 2018.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rapha%C3%ABl_Beuchot</t>
+          <t>Raphaël_Beuchot</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ma vie de zombie, scénario de Sébastien Viozat, Ankama, 2008
 Avec les morts, scénario de Sébastien Viozat, Ankama, 2009
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rapha%C3%ABl_Beuchot</t>
+          <t>Raphaël_Beuchot</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,12 +597,14 @@
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2008 : Prix Raymond Leblanc, avec Stéphane Melchior-Durand, pour Supermagic Girl[2] ;
-2012 : Prix BD One shot, premier prix d'Eurespace, avec Zidrou pour Le Montreur d'histoires[3]
-2012 : Prix écureuil découverte en partenariat avec la Caisse d'Épargne pour  Le Montreur d'histoires[4].
-2015 : Prix Espoir du 9e art de Versailles pour Tourne-disque[5]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2008 : Prix Raymond Leblanc, avec Stéphane Melchior-Durand, pour Supermagic Girl ;
+2012 : Prix BD One shot, premier prix d'Eurespace, avec Zidrou pour Le Montreur d'histoires
+2012 : Prix écureuil découverte en partenariat avec la Caisse d'Épargne pour  Le Montreur d'histoires.
+2015 : Prix Espoir du 9e art de Versailles pour Tourne-disque</t>
         </is>
       </c>
     </row>
